--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BNoGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5A3EB1-F89B-403A-82DE-D758BC354B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA53CC21-19BC-4F6C-A147-B052A846A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="975" windowWidth="14520" windowHeight="17025" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="8">
-        <v>45194</v>
+        <v>45258</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>81</v>

--- a/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
+++ b/InputData/trans/BNoGP/BAU Number of Gas Pumps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\trans\BNoGP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/trans/BNoGP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA53CC21-19BC-4F6C-A147-B052A846A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E91A64C-F078-074F-ACFA-95B5E66D603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1110" windowWidth="13035" windowHeight="16890" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="13040" windowHeight="16900" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -836,13 +836,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -850,7 +850,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="8">
-        <v>45258</v>
+        <v>45296</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>81</v>
@@ -859,7 +859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="str">
         <f>LOOKUP(B1,E2:F51,F2:F51)</f>
         <v>CA</v>
@@ -871,7 +871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
@@ -907,7 +907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" s="7" t="s">
         <v>60</v>
       </c>
@@ -937,7 +937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -948,7 +948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
@@ -967,7 +967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
@@ -975,7 +975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
@@ -983,7 +983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
@@ -991,7 +991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
         <v>52</v>
       </c>
@@ -999,7 +999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
         <v>51</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
         <v>47</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
         <v>45</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23" s="7" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="7" t="s">
         <v>43</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
         <v>40</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28" s="7" t="s">
         <v>38</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E29" s="7" t="s">
         <v>37</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E30" s="7" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E31" s="7" t="s">
         <v>35</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E32" s="7" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34" s="7" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35" s="7" t="s">
         <v>31</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
         <v>29</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E39" s="7" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E41" s="7" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E42" s="7" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43" s="7" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E44" s="7" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E45" s="7" t="s">
         <v>20</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E46" s="7" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47" s="7" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E48" s="7" t="s">
         <v>17</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" s="7" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" s="7" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51" s="7" t="s">
         <v>13</v>
       </c>
@@ -1301,13 +1301,13 @@
       <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2.7936447399214692E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1.6208860265755965E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1.4423285284608517E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1.345248723660602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>6.8701297575605239E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1.5229394378039161E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>9.4999523268815712E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2.2189669668628486E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>7.2809853600187228E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>5.9132002531009198E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>4.4500689093257287E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2.1582920888626928E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>5.9374702043009818E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>3.3813242725515523E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>2.3472509946346073E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1.5229394378039161E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9.72531615945358E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>1.7275004550615852E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2.1556917369484004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>6.9342717714464021E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1.4206589291750817E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1.7838414132045871E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3.1464258162938054E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1.8731201622619594E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1.7257668871187234E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2.3550520503774843E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>4.4379339337256973E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>8.5984969965935392E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>7.5843597500195028E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5.07935407258449E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>2.0378091168338115E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>7.3243245585902627E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>4.2879803066681689E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>3.9854727006388195E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>4.0478811465818375E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>3.373523216808675E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1.61395175480415E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>8.546489958307691E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>3.3579211053229203E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2.773708708578561E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>2.2475708379200651E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>5.4434033405854256E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>2.9722022380362142E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>9.8275966680824139E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>7.3503280777331868E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>3.7271710771524412E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>3.0216089244077697E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>1.7335679428616007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>8.2951226065927589E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2.2692404372058352E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>2.9123941440074891E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F54" s="10"/>
     </row>
   </sheetData>
@@ -3671,9 +3671,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>80</v>
       </c>
@@ -3698,13 +3698,13 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
